--- a/predictions/Прогнозы_GP_Combo_3.xlsx
+++ b/predictions/Прогнозы_GP_Combo_3.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22922861.88237596</v>
+        <v>22684391.26741552</v>
       </c>
       <c r="C2" t="n">
-        <v>23289820.75788546</v>
+        <v>23039118.70237637</v>
       </c>
       <c r="D2" t="n">
-        <v>23656779.63339496</v>
+        <v>23393846.13733196</v>
       </c>
       <c r="E2" t="n">
-        <v>24023738.50890446</v>
+        <v>23748573.57228041</v>
       </c>
       <c r="F2" t="n">
-        <v>24390697.3844142</v>
+        <v>24103301.00722313</v>
       </c>
       <c r="G2" t="n">
-        <v>24757656.25992465</v>
+        <v>24458028.44216013</v>
       </c>
       <c r="H2" t="n">
-        <v>25124615.13543367</v>
+        <v>24812755.87708807</v>
       </c>
       <c r="I2" t="n">
-        <v>25491574.01094341</v>
+        <v>25167483.31201267</v>
       </c>
       <c r="J2" t="n">
-        <v>25858532.88645244</v>
+        <v>25522210.74693012</v>
       </c>
       <c r="K2" t="n">
-        <v>26225491.76196194</v>
+        <v>25876938.18183994</v>
       </c>
       <c r="L2" t="n">
-        <v>26592450.63747215</v>
+        <v>26231665.61674595</v>
       </c>
       <c r="M2" t="n">
-        <v>26959409.51298189</v>
+        <v>26586393.05164146</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12103587.98236072</v>
+        <v>9628935.205221891</v>
       </c>
       <c r="C3" t="n">
-        <v>12356209.44914603</v>
+        <v>9883879.725575686</v>
       </c>
       <c r="D3" t="n">
-        <v>12378315.43919361</v>
+        <v>10138818.86446691</v>
       </c>
       <c r="E3" t="n">
-        <v>13448530.33458221</v>
+        <v>10393752.62989652</v>
       </c>
       <c r="F3" t="n">
-        <v>14641038.87047613</v>
+        <v>10648681.02985334</v>
       </c>
       <c r="G3" t="n">
-        <v>14418617.55696797</v>
+        <v>10903604.07231426</v>
       </c>
       <c r="H3" t="n">
-        <v>14283606.56931639</v>
+        <v>11158521.7652446</v>
       </c>
       <c r="I3" t="n">
-        <v>14013359.87373924</v>
+        <v>11413434.11659753</v>
       </c>
       <c r="J3" t="n">
-        <v>13605712.5895319</v>
+        <v>11668341.1343143</v>
       </c>
       <c r="K3" t="n">
-        <v>14152727.78489196</v>
+        <v>11923242.82632518</v>
       </c>
       <c r="L3" t="n">
-        <v>15063647.7366817</v>
+        <v>12178139.20054758</v>
       </c>
       <c r="M3" t="n">
-        <v>14185977.36328745</v>
+        <v>12433030.26488721</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17004774.7900157</v>
+        <v>18184957.28096795</v>
       </c>
       <c r="C4" t="n">
-        <v>16190153.2641151</v>
+        <v>18687834.52102304</v>
       </c>
       <c r="D4" t="n">
-        <v>15206423.27770138</v>
+        <v>19190711.76107824</v>
       </c>
       <c r="E4" t="n">
-        <v>14268248.30650568</v>
+        <v>19693589.00113368</v>
       </c>
       <c r="F4" t="n">
-        <v>13485212.3767457</v>
+        <v>20196466.24118888</v>
       </c>
       <c r="G4" t="n">
-        <v>12892949.36097765</v>
+        <v>20699343.48124433</v>
       </c>
       <c r="H4" t="n">
-        <v>12484837.92146873</v>
+        <v>21202220.72129941</v>
       </c>
       <c r="I4" t="n">
-        <v>12234825.1499126</v>
+        <v>21705097.96135473</v>
       </c>
       <c r="J4" t="n">
-        <v>12111241.9771719</v>
+        <v>22207975.20141017</v>
       </c>
       <c r="K4" t="n">
-        <v>12084001.1550765</v>
+        <v>22710852.4414655</v>
       </c>
       <c r="L4" t="n">
-        <v>12127637.43269777</v>
+        <v>23213729.68152094</v>
       </c>
       <c r="M4" t="n">
-        <v>12222031.71677518</v>
+        <v>23716606.92157614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13632389.85929799</v>
+        <v>25969158.94292915</v>
       </c>
       <c r="C5" t="n">
-        <v>13085486.39614367</v>
+        <v>26510183.08757389</v>
       </c>
       <c r="D5" t="n">
-        <v>12385478.14026666</v>
+        <v>27051207.23221815</v>
       </c>
       <c r="E5" t="n">
-        <v>11710666.61306357</v>
+        <v>27592231.37686253</v>
       </c>
       <c r="F5" t="n">
-        <v>11151890.32803321</v>
+        <v>28133255.52150679</v>
       </c>
       <c r="G5" t="n">
-        <v>10738431.13438463</v>
+        <v>28674279.66615081</v>
       </c>
       <c r="H5" t="n">
-        <v>10464924.21034336</v>
+        <v>29215303.81079543</v>
       </c>
       <c r="I5" t="n">
-        <v>10310524.53548932</v>
+        <v>29756327.95544004</v>
       </c>
       <c r="J5" t="n">
-        <v>10250265.72279453</v>
+        <v>30297352.10008454</v>
       </c>
       <c r="K5" t="n">
-        <v>10260794.47705746</v>
+        <v>30838376.24472904</v>
       </c>
       <c r="L5" t="n">
-        <v>10322659.58973455</v>
+        <v>31379400.3893733</v>
       </c>
       <c r="M5" t="n">
-        <v>10420743.16849089</v>
+        <v>31920424.53401756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11427601.71101975</v>
+        <v>2934632.132041454</v>
       </c>
       <c r="C6" t="n">
-        <v>11665676.74666572</v>
+        <v>2931362.386042476</v>
       </c>
       <c r="D6" t="n">
-        <v>11903751.78231192</v>
+        <v>2928108.028214872</v>
       </c>
       <c r="E6" t="n">
-        <v>12141826.81795835</v>
+        <v>2924869.022340134</v>
       </c>
       <c r="F6" t="n">
-        <v>12379901.85360479</v>
+        <v>2921645.332284629</v>
       </c>
       <c r="G6" t="n">
-        <v>12617976.88925004</v>
+        <v>2918436.922000006</v>
       </c>
       <c r="H6" t="n">
-        <v>12856051.92489815</v>
+        <v>2915243.755522549</v>
       </c>
       <c r="I6" t="n">
-        <v>13094126.96054268</v>
+        <v>2912065.796973363</v>
       </c>
       <c r="J6" t="n">
-        <v>13332201.99618912</v>
+        <v>2908903.010558024</v>
       </c>
       <c r="K6" t="n">
-        <v>13570277.03183603</v>
+        <v>2905755.360566169</v>
       </c>
       <c r="L6" t="n">
-        <v>13808352.06748247</v>
+        <v>2902622.811371729</v>
       </c>
       <c r="M6" t="n">
-        <v>14046427.10312796</v>
+        <v>2899505.327432185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3068304.811759872</v>
+        <v>8882492.133258402</v>
       </c>
       <c r="C7" t="n">
-        <v>3142023.886676909</v>
+        <v>9092902.892378211</v>
       </c>
       <c r="D7" t="n">
-        <v>3179037.072308748</v>
+        <v>9303309.747450352</v>
       </c>
       <c r="E7" t="n">
-        <v>3217434.478760558</v>
+        <v>9513712.70577389</v>
       </c>
       <c r="F7" t="n">
-        <v>3222727.498566851</v>
+        <v>9724111.774633646</v>
       </c>
       <c r="G7" t="n">
-        <v>3293699.417619335</v>
+        <v>9934506.961301565</v>
       </c>
       <c r="H7" t="n">
-        <v>3389460.651601974</v>
+        <v>10144898.27303481</v>
       </c>
       <c r="I7" t="n">
-        <v>3429446.069884537</v>
+        <v>10355285.71707821</v>
       </c>
       <c r="J7" t="n">
-        <v>3473283.712531799</v>
+        <v>10565669.3006624</v>
       </c>
       <c r="K7" t="n">
-        <v>3485058.496642143</v>
+        <v>10776049.03100431</v>
       </c>
       <c r="L7" t="n">
-        <v>3522869.618934107</v>
+        <v>10986424.91530848</v>
       </c>
       <c r="M7" t="n">
-        <v>3626932.245085989</v>
+        <v>11196796.96076477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1825245.955021307</v>
+        <v>20008612.4609152</v>
       </c>
       <c r="C8" t="n">
-        <v>1863271.912417576</v>
+        <v>20248235.68192905</v>
       </c>
       <c r="D8" t="n">
-        <v>1901297.869813845</v>
+        <v>20491021.26767743</v>
       </c>
       <c r="E8" t="n">
-        <v>1939323.827210121</v>
+        <v>20736873.81895429</v>
       </c>
       <c r="F8" t="n">
-        <v>1977349.78460642</v>
+        <v>20985700.81446589</v>
       </c>
       <c r="G8" t="n">
-        <v>2015375.742002688</v>
+        <v>21237412.52401271</v>
       </c>
       <c r="H8" t="n">
-        <v>2053401.699398987</v>
+        <v>21491921.92429046</v>
       </c>
       <c r="I8" t="n">
-        <v>2091427.656795219</v>
+        <v>21749144.6172309</v>
       </c>
       <c r="J8" t="n">
-        <v>2129453.614191525</v>
+        <v>22008998.75080632</v>
       </c>
       <c r="K8" t="n">
-        <v>2167479.571587779</v>
+        <v>22271404.94222299</v>
       </c>
       <c r="L8" t="n">
-        <v>2205505.52898407</v>
+        <v>22536286.20343167</v>
       </c>
       <c r="M8" t="n">
-        <v>2243531.486380346</v>
+        <v>22803567.86888522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3065501.847719193</v>
+        <v>30849045.35008156</v>
       </c>
       <c r="C9" t="n">
-        <v>3152953.382060051</v>
+        <v>31423518.26307786</v>
       </c>
       <c r="D9" t="n">
-        <v>3240404.916402817</v>
+        <v>31997965.12202525</v>
       </c>
       <c r="E9" t="n">
-        <v>3327856.45074892</v>
+        <v>32572457.03230083</v>
       </c>
       <c r="F9" t="n">
-        <v>3415307.985096455</v>
+        <v>33146953.5411582</v>
       </c>
       <c r="G9" t="n">
-        <v>3502759.519445896</v>
+        <v>33721402.8087045</v>
       </c>
       <c r="H9" t="n">
-        <v>3590211.053798199</v>
+        <v>34295869.97598827</v>
       </c>
       <c r="I9" t="n">
-        <v>3677662.588153839</v>
+        <v>34870375.86000919</v>
       </c>
       <c r="J9" t="n">
-        <v>3765114.122511387</v>
+        <v>35444845.40562689</v>
       </c>
       <c r="K9" t="n">
-        <v>3852565.656870842</v>
+        <v>36019293.54047298</v>
       </c>
       <c r="L9" t="n">
-        <v>3940017.191233158</v>
+        <v>36593788.21049607</v>
       </c>
       <c r="M9" t="n">
-        <v>4027468.725597858</v>
+        <v>37168282.12913609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7097598.78835094</v>
+        <v>11426513.44533539</v>
       </c>
       <c r="C10" t="n">
-        <v>7245465.42977488</v>
+        <v>11689820.83273125</v>
       </c>
       <c r="D10" t="n">
-        <v>7393332.07119894</v>
+        <v>11953129.12961006</v>
       </c>
       <c r="E10" t="n">
-        <v>7541198.712622881</v>
+        <v>12216438.33568573</v>
       </c>
       <c r="F10" t="n">
-        <v>7689065.354046822</v>
+        <v>12479748.45065689</v>
       </c>
       <c r="G10" t="n">
-        <v>7836931.995471001</v>
+        <v>12743059.47421932</v>
       </c>
       <c r="H10" t="n">
-        <v>7984798.636894941</v>
+        <v>13006371.4060812</v>
       </c>
       <c r="I10" t="n">
-        <v>8132665.278318763</v>
+        <v>13269684.24591923</v>
       </c>
       <c r="J10" t="n">
-        <v>8280531.919742703</v>
+        <v>13532997.993433</v>
       </c>
       <c r="K10" t="n">
-        <v>8428398.561166763</v>
+        <v>13796312.64828491</v>
       </c>
       <c r="L10" t="n">
-        <v>8576265.202590704</v>
+        <v>14059628.21016312</v>
       </c>
       <c r="M10" t="n">
-        <v>8724131.844014645</v>
+        <v>14322944.67873383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2204741.057927608</v>
+        <v>14886287.50354373</v>
       </c>
       <c r="C11" t="n">
-        <v>2421276.843534172</v>
+        <v>15288340.0936923</v>
       </c>
       <c r="D11" t="n">
-        <v>2608817.777311444</v>
+        <v>15690392.68414366</v>
       </c>
       <c r="E11" t="n">
-        <v>2772835.667031527</v>
+        <v>16092445.27525461</v>
       </c>
       <c r="F11" t="n">
-        <v>2917769.699900985</v>
+        <v>16494497.86724854</v>
       </c>
       <c r="G11" t="n">
-        <v>3047221.315128565</v>
+        <v>16896550.46016979</v>
       </c>
       <c r="H11" t="n">
-        <v>3164112.300819337</v>
+        <v>17298603.05387521</v>
       </c>
       <c r="I11" t="n">
-        <v>3270813.055371165</v>
+        <v>17700655.64806354</v>
       </c>
       <c r="J11" t="n">
-        <v>3369246.643825769</v>
+        <v>18102708.24233687</v>
       </c>
       <c r="K11" t="n">
-        <v>3460973.217067003</v>
+        <v>18504760.83628428</v>
       </c>
       <c r="L11" t="n">
-        <v>3547258.499720216</v>
+        <v>18906813.42956555</v>
       </c>
       <c r="M11" t="n">
-        <v>3629129.353253961</v>
+        <v>19308866.02198339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>608088.174987799</v>
+        <v>43689667.29091549</v>
       </c>
       <c r="C12" t="n">
-        <v>636926.6352622891</v>
+        <v>44189500.48252544</v>
       </c>
       <c r="D12" t="n">
-        <v>662088.1312464275</v>
+        <v>44691942.69722155</v>
       </c>
       <c r="E12" t="n">
-        <v>683969.6244080476</v>
+        <v>45044656.56520864</v>
       </c>
       <c r="F12" t="n">
-        <v>703071.7496619308</v>
+        <v>45628921.39990675</v>
       </c>
       <c r="G12" t="n">
-        <v>719819.4669752764</v>
+        <v>46000773.19377008</v>
       </c>
       <c r="H12" t="n">
-        <v>734426.1424724059</v>
+        <v>46473118.45487541</v>
       </c>
       <c r="I12" t="n">
-        <v>746944.6172931315</v>
+        <v>47000796.37253052</v>
       </c>
       <c r="J12" t="n">
-        <v>757455.8603682145</v>
+        <v>47341569.85809803</v>
       </c>
       <c r="K12" t="n">
-        <v>766203.6842986611</v>
+        <v>47919250.8093099</v>
       </c>
       <c r="L12" t="n">
-        <v>773539.2321859095</v>
+        <v>48313299.29008442</v>
       </c>
       <c r="M12" t="n">
-        <v>779734.7741677458</v>
+        <v>48757522.86089122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2117070.149822384</v>
+        <v>41660365.84054697</v>
       </c>
       <c r="C13" t="n">
-        <v>2151536.044627368</v>
+        <v>41952587.31142497</v>
       </c>
       <c r="D13" t="n">
-        <v>2195700.229681969</v>
+        <v>42244808.78199911</v>
       </c>
       <c r="E13" t="n">
-        <v>2251848.662145942</v>
+        <v>42537030.25226855</v>
       </c>
       <c r="F13" t="n">
-        <v>2313837.2154544</v>
+        <v>42829251.72223473</v>
       </c>
       <c r="G13" t="n">
-        <v>2371480.841804862</v>
+        <v>43121473.19189715</v>
       </c>
       <c r="H13" t="n">
-        <v>2417646.291888803</v>
+        <v>43413694.66125596</v>
       </c>
       <c r="I13" t="n">
-        <v>2453178.295446843</v>
+        <v>43705916.13031244</v>
       </c>
       <c r="J13" t="n">
-        <v>2486383.199601263</v>
+        <v>43998137.59906602</v>
       </c>
       <c r="K13" t="n">
-        <v>2527253.836945921</v>
+        <v>44290359.0675168</v>
       </c>
       <c r="L13" t="n">
-        <v>2580373.720120817</v>
+        <v>44582580.53566611</v>
       </c>
       <c r="M13" t="n">
-        <v>2641689.006133705</v>
+        <v>44874802.00351262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>614847.2443267107</v>
+        <v>759487.4975686222</v>
       </c>
       <c r="C14" t="n">
-        <v>606614.1838027686</v>
+        <v>779706.6305537671</v>
       </c>
       <c r="D14" t="n">
-        <v>598381.1763843</v>
+        <v>799925.0417791009</v>
       </c>
       <c r="E14" t="n">
-        <v>590148.2190401256</v>
+        <v>820142.7326399982</v>
       </c>
       <c r="F14" t="n">
-        <v>581915.3079655915</v>
+        <v>840359.7045291066</v>
       </c>
       <c r="G14" t="n">
-        <v>573682.438642323</v>
+        <v>860575.9588363022</v>
       </c>
       <c r="H14" t="n">
-        <v>565449.6059076339</v>
+        <v>880791.4969491214</v>
       </c>
       <c r="I14" t="n">
-        <v>557216.8040352315</v>
+        <v>901006.320251897</v>
       </c>
       <c r="J14" t="n">
-        <v>548984.0268245637</v>
+        <v>921220.4301266372</v>
       </c>
       <c r="K14" t="n">
-        <v>540751.2676965892</v>
+        <v>941433.8279526532</v>
       </c>
       <c r="L14" t="n">
-        <v>532518.519796133</v>
+        <v>961646.5151065141</v>
       </c>
       <c r="M14" t="n">
-        <v>524285.7760990411</v>
+        <v>981858.4929620475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>796659.8592343833</v>
+        <v>4538082.253368884</v>
       </c>
       <c r="C15" t="n">
-        <v>815886.2452229913</v>
+        <v>4632625.633647352</v>
       </c>
       <c r="D15" t="n">
-        <v>835110.1326459944</v>
+        <v>4727169.01392591</v>
       </c>
       <c r="E15" t="n">
-        <v>854331.5338709578</v>
+        <v>4821712.394204438</v>
       </c>
       <c r="F15" t="n">
-        <v>873550.4612042075</v>
+        <v>4916255.774482936</v>
       </c>
       <c r="G15" t="n">
-        <v>892766.9268911835</v>
+        <v>5010799.154761493</v>
       </c>
       <c r="H15" t="n">
-        <v>911980.94311669</v>
+        <v>5105342.535040021</v>
       </c>
       <c r="I15" t="n">
-        <v>931192.522005233</v>
+        <v>5199885.915318549</v>
       </c>
       <c r="J15" t="n">
-        <v>950401.6756213</v>
+        <v>5294429.295597017</v>
       </c>
       <c r="K15" t="n">
-        <v>969608.4159696568</v>
+        <v>5388972.675875545</v>
       </c>
       <c r="L15" t="n">
-        <v>988812.7549956422</v>
+        <v>5483516.056154132</v>
       </c>
       <c r="M15" t="n">
-        <v>1008014.704585483</v>
+        <v>5578059.43643254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127002.541044183</v>
+        <v>11687997.78615946</v>
       </c>
       <c r="C16" t="n">
-        <v>1126429.070073113</v>
+        <v>11931497.74003789</v>
       </c>
       <c r="D16" t="n">
-        <v>1190152.138477869</v>
+        <v>12174997.69391614</v>
       </c>
       <c r="E16" t="n">
-        <v>1261166.449714541</v>
+        <v>12418497.64779451</v>
       </c>
       <c r="F16" t="n">
-        <v>1248912.859608032</v>
+        <v>12661997.60167277</v>
       </c>
       <c r="G16" t="n">
-        <v>1272393.419200853</v>
+        <v>12905497.55555111</v>
       </c>
       <c r="H16" t="n">
-        <v>1272811.720407724</v>
+        <v>13148997.50942963</v>
       </c>
       <c r="I16" t="n">
-        <v>1307621.174589388</v>
+        <v>13392497.46330774</v>
       </c>
       <c r="J16" t="n">
-        <v>1399382.294617251</v>
+        <v>13635997.41718617</v>
       </c>
       <c r="K16" t="n">
-        <v>1399071.317030996</v>
+        <v>13879497.37106442</v>
       </c>
       <c r="L16" t="n">
-        <v>1413224.090305552</v>
+        <v>14122997.3249428</v>
       </c>
       <c r="M16" t="n">
-        <v>1422571.547827117</v>
+        <v>14366497.27882102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3297293.542468011</v>
+        <v>5644653.13284393</v>
       </c>
       <c r="C17" t="n">
-        <v>3365987.157936096</v>
+        <v>5916791.589700539</v>
       </c>
       <c r="D17" t="n">
-        <v>3434680.77340436</v>
+        <v>6177540.895625148</v>
       </c>
       <c r="E17" t="n">
-        <v>3503374.388872147</v>
+        <v>6157058.689211749</v>
       </c>
       <c r="F17" t="n">
-        <v>3572068.004339933</v>
+        <v>6147654.437676989</v>
       </c>
       <c r="G17" t="n">
-        <v>3640761.619808435</v>
+        <v>6377702.407386862</v>
       </c>
       <c r="H17" t="n">
-        <v>3709455.235276341</v>
+        <v>6674873.224244576</v>
       </c>
       <c r="I17" t="n">
-        <v>3778148.850744724</v>
+        <v>6728486.979400583</v>
       </c>
       <c r="J17" t="n">
-        <v>3846842.466212511</v>
+        <v>6669383.050004698</v>
       </c>
       <c r="K17" t="n">
-        <v>3915536.081680834</v>
+        <v>6844780.151018199</v>
       </c>
       <c r="L17" t="n">
-        <v>3984229.69714886</v>
+        <v>7152058.102095682</v>
       </c>
       <c r="M17" t="n">
-        <v>4052923.312616825</v>
+        <v>7289907.598288327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1517088.745571136</v>
+        <v>3761531.361971329</v>
       </c>
       <c r="C18" t="n">
-        <v>1548694.761102676</v>
+        <v>3806592.660432551</v>
       </c>
       <c r="D18" t="n">
-        <v>1580300.776637077</v>
+        <v>3851667.216162423</v>
       </c>
       <c r="E18" t="n">
-        <v>1611906.792171478</v>
+        <v>3896754.988253279</v>
       </c>
       <c r="F18" t="n">
-        <v>1643512.807701111</v>
+        <v>3941855.935923633</v>
       </c>
       <c r="G18" t="n">
-        <v>1675118.823233604</v>
+        <v>3986970.01851787</v>
       </c>
       <c r="H18" t="n">
-        <v>1706724.838768005</v>
+        <v>4032097.195505848</v>
       </c>
       <c r="I18" t="n">
-        <v>1738330.854299545</v>
+        <v>4077237.426482441</v>
       </c>
       <c r="J18" t="n">
-        <v>1769936.8698349</v>
+        <v>4122390.67116721</v>
       </c>
       <c r="K18" t="n">
-        <v>1801542.885364532</v>
+        <v>4167556.889404041</v>
       </c>
       <c r="L18" t="n">
-        <v>1833148.90089798</v>
+        <v>4212736.041160677</v>
       </c>
       <c r="M18" t="n">
-        <v>1864754.916431427</v>
+        <v>4257928.086528446</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54163.51846174005</v>
+        <v>8028927.03557229</v>
       </c>
       <c r="C19" t="n">
-        <v>29118.87926192139</v>
+        <v>8196196.348813653</v>
       </c>
       <c r="D19" t="n">
-        <v>11915.16203648699</v>
+        <v>8363465.66205442</v>
       </c>
       <c r="E19" t="n">
-        <v>11550.68589633852</v>
+        <v>8530734.975295782</v>
       </c>
       <c r="F19" t="n">
-        <v>26001.25563089579</v>
+        <v>8698004.288536429</v>
       </c>
       <c r="G19" t="n">
-        <v>41250.1630157624</v>
+        <v>8865273.60177815</v>
       </c>
       <c r="H19" t="n">
-        <v>38445.47313696248</v>
+        <v>9032542.915018797</v>
       </c>
       <c r="I19" t="n">
-        <v>16571.9084708041</v>
+        <v>9199812.228259921</v>
       </c>
       <c r="J19" t="n">
-        <v>-6673.667059123749</v>
+        <v>9367081.541501045</v>
       </c>
       <c r="K19" t="n">
-        <v>-16467.46287090922</v>
+        <v>9534350.85474205</v>
       </c>
       <c r="L19" t="n">
-        <v>-8988.254529575352</v>
+        <v>9701620.167983294</v>
       </c>
       <c r="M19" t="n">
-        <v>8293.114236623602</v>
+        <v>9868889.481224418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3354934.889335573</v>
+        <v>1841520.041074358</v>
       </c>
       <c r="C20" t="n">
-        <v>3424829.366196722</v>
+        <v>1926433.300290428</v>
       </c>
       <c r="D20" t="n">
-        <v>3494723.843057901</v>
+        <v>2010968.151131131</v>
       </c>
       <c r="E20" t="n">
-        <v>3564618.31991896</v>
+        <v>2094613.509867154</v>
       </c>
       <c r="F20" t="n">
-        <v>3634512.796780169</v>
+        <v>2176814.929168127</v>
       </c>
       <c r="G20" t="n">
-        <v>3704407.273641199</v>
+        <v>2256999.764535971</v>
       </c>
       <c r="H20" t="n">
-        <v>3774301.750502586</v>
+        <v>2334603.41412022</v>
       </c>
       <c r="I20" t="n">
-        <v>3844196.227363616</v>
+        <v>2409095.418028399</v>
       </c>
       <c r="J20" t="n">
-        <v>3914090.704224944</v>
+        <v>2480003.603776604</v>
       </c>
       <c r="K20" t="n">
-        <v>3983985.181086063</v>
+        <v>2546935.138904102</v>
       </c>
       <c r="L20" t="n">
-        <v>4053879.657947212</v>
+        <v>2609593.233385183</v>
       </c>
       <c r="M20" t="n">
-        <v>4123774.134808272</v>
+        <v>2667788.821391657</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1393662.190465599</v>
+        <v>4582740.79446511</v>
       </c>
       <c r="C21" t="n">
-        <v>1413143.978124887</v>
+        <v>4678214.561016463</v>
       </c>
       <c r="D21" t="n">
-        <v>1432625.765783692</v>
+        <v>4773688.327567827</v>
       </c>
       <c r="E21" t="n">
-        <v>1452107.553442043</v>
+        <v>4869162.09411918</v>
       </c>
       <c r="F21" t="n">
-        <v>1471589.341099911</v>
+        <v>4964635.860670552</v>
       </c>
       <c r="G21" t="n">
-        <v>1491071.128757318</v>
+        <v>5060109.627221901</v>
       </c>
       <c r="H21" t="n">
-        <v>1510552.916414252</v>
+        <v>5155583.393773261</v>
       </c>
       <c r="I21" t="n">
-        <v>1530034.704070725</v>
+        <v>5251057.160324629</v>
       </c>
       <c r="J21" t="n">
-        <v>1549516.491726721</v>
+        <v>5346530.926875971</v>
       </c>
       <c r="K21" t="n">
-        <v>1568998.279382253</v>
+        <v>5442004.693427347</v>
       </c>
       <c r="L21" t="n">
-        <v>1588480.067037313</v>
+        <v>5537478.459978685</v>
       </c>
       <c r="M21" t="n">
-        <v>1607961.854691906</v>
+        <v>5632952.226530053</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1040332.659386665</v>
+        <v>12942764.55632108</v>
       </c>
       <c r="C22" t="n">
-        <v>1062006.256457224</v>
+        <v>13138775.81076771</v>
       </c>
       <c r="D22" t="n">
-        <v>1083679.853527755</v>
+        <v>13332867.96075967</v>
       </c>
       <c r="E22" t="n">
-        <v>1105353.4505983</v>
+        <v>13525603.45186773</v>
       </c>
       <c r="F22" t="n">
-        <v>1127027.047668919</v>
+        <v>13716028.48823351</v>
       </c>
       <c r="G22" t="n">
-        <v>1148700.644739509</v>
+        <v>13904677.55625403</v>
       </c>
       <c r="H22" t="n">
-        <v>1170374.241809994</v>
+        <v>14091458.55885085</v>
       </c>
       <c r="I22" t="n">
-        <v>1192047.838880539</v>
+        <v>14279529.20958742</v>
       </c>
       <c r="J22" t="n">
-        <v>1213721.435951084</v>
+        <v>14469758.07341486</v>
       </c>
       <c r="K22" t="n">
-        <v>1235395.033021703</v>
+        <v>14662109.9058513</v>
       </c>
       <c r="L22" t="n">
-        <v>1257068.630092248</v>
+        <v>14857011.18897578</v>
       </c>
       <c r="M22" t="n">
-        <v>1278742.227162749</v>
+        <v>15052778.84468162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.303414938878918e-42</v>
+        <v>8054085.633730024</v>
       </c>
       <c r="C23" t="n">
-        <v>9.497236083438895e-42</v>
+        <v>8108698.208625555</v>
       </c>
       <c r="D23" t="n">
-        <v>9.691057227998871e-42</v>
+        <v>8163310.783388734</v>
       </c>
       <c r="E23" t="n">
-        <v>9.88487837255885e-42</v>
+        <v>8217923.358019441</v>
       </c>
       <c r="F23" t="n">
-        <v>1.007869951711883e-41</v>
+        <v>8272535.932517707</v>
       </c>
       <c r="G23" t="n">
-        <v>1.02725206616788e-41</v>
+        <v>8327148.50688377</v>
       </c>
       <c r="H23" t="n">
-        <v>1.046634180623878e-41</v>
+        <v>8381761.08111763</v>
       </c>
       <c r="I23" t="n">
-        <v>1.066016295079876e-41</v>
+        <v>8436373.655219197</v>
       </c>
       <c r="J23" t="n">
-        <v>1.085398409535874e-41</v>
+        <v>8490986.229188681</v>
       </c>
       <c r="K23" t="n">
-        <v>1.104780523991871e-41</v>
+        <v>8545598.80302614</v>
       </c>
       <c r="L23" t="n">
-        <v>1.124162638447869e-41</v>
+        <v>8600211.376731515</v>
       </c>
       <c r="M23" t="n">
-        <v>1.143544752903867e-41</v>
+        <v>8654823.950305045</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11409674.35737598</v>
+        <v>12005252.33161432</v>
       </c>
       <c r="C24" t="n">
-        <v>11712395.56828249</v>
+        <v>12255361.7551896</v>
       </c>
       <c r="D24" t="n">
-        <v>11577591.53854439</v>
+        <v>12505471.178765</v>
       </c>
       <c r="E24" t="n">
-        <v>11824007.24039651</v>
+        <v>12755580.6023404</v>
       </c>
       <c r="F24" t="n">
-        <v>11725077.88235751</v>
+        <v>13005690.02591562</v>
       </c>
       <c r="G24" t="n">
-        <v>11916607.57618637</v>
+        <v>13255799.44949076</v>
       </c>
       <c r="H24" t="n">
-        <v>11860873.93510196</v>
+        <v>13505908.87306607</v>
       </c>
       <c r="I24" t="n">
-        <v>12000707.32505949</v>
+        <v>13756018.29664141</v>
       </c>
       <c r="J24" t="n">
-        <v>11995445.53777762</v>
+        <v>14006127.72021687</v>
       </c>
       <c r="K24" t="n">
-        <v>12087488.44334002</v>
+        <v>14256237.14379203</v>
       </c>
       <c r="L24" t="n">
-        <v>12139609.7795779</v>
+        <v>14506346.56736702</v>
       </c>
       <c r="M24" t="n">
-        <v>12187656.32726884</v>
+        <v>14756455.99094278</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3113210.486661186</v>
+        <v>5476580.552121699</v>
       </c>
       <c r="C25" t="n">
-        <v>3134968.360296593</v>
+        <v>5471865.632179499</v>
       </c>
       <c r="D25" t="n">
-        <v>3156898.002606881</v>
+        <v>5698615.840444773</v>
       </c>
       <c r="E25" t="n">
-        <v>3177767.437324351</v>
+        <v>6317906.362474471</v>
       </c>
       <c r="F25" t="n">
-        <v>3198439.528207209</v>
+        <v>5929554.441434652</v>
       </c>
       <c r="G25" t="n">
-        <v>3220177.524738828</v>
+        <v>6020638.214111835</v>
       </c>
       <c r="H25" t="n">
-        <v>3242164.004213125</v>
+        <v>6000267.790812463</v>
       </c>
       <c r="I25" t="n">
-        <v>3263106.297421273</v>
+        <v>6124497.27857396</v>
       </c>
       <c r="J25" t="n">
-        <v>3283775.007248861</v>
+        <v>6087313.284515828</v>
       </c>
       <c r="K25" t="n">
-        <v>3305490.696839704</v>
+        <v>6524583.820218742</v>
       </c>
       <c r="L25" t="n">
-        <v>3327530.323087418</v>
+        <v>6548379.569666833</v>
       </c>
       <c r="M25" t="n">
-        <v>3348547.261581503</v>
+        <v>6435538.351676166</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12974066.59936213</v>
+        <v>12707239.10453945</v>
       </c>
       <c r="C26" t="n">
-        <v>13228548.48710012</v>
+        <v>12886938.85274607</v>
       </c>
       <c r="D26" t="n">
-        <v>13476380.23304495</v>
+        <v>13066638.61439174</v>
       </c>
       <c r="E26" t="n">
-        <v>13727919.90479285</v>
+        <v>13246338.389476</v>
       </c>
       <c r="F26" t="n">
-        <v>13981354.44296628</v>
+        <v>13426038.17799768</v>
       </c>
       <c r="G26" t="n">
-        <v>14250026.87185508</v>
+        <v>13605737.97995678</v>
       </c>
       <c r="H26" t="n">
-        <v>14536268.18750861</v>
+        <v>13785437.79535162</v>
       </c>
       <c r="I26" t="n">
-        <v>14764263.8339113</v>
+        <v>13965137.62418193</v>
       </c>
       <c r="J26" t="n">
-        <v>15013504.6254451</v>
+        <v>14144837.46644714</v>
       </c>
       <c r="K26" t="n">
-        <v>15259018.1625202</v>
+        <v>14324537.32214636</v>
       </c>
       <c r="L26" t="n">
-        <v>15517867.62731135</v>
+        <v>14504237.19127858</v>
       </c>
       <c r="M26" t="n">
-        <v>15766640.41659498</v>
+        <v>14683937.07384312</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18544322.20700336</v>
+        <v>4818456.014055081</v>
       </c>
       <c r="C27" t="n">
-        <v>18802861.46067798</v>
+        <v>4875116.108687863</v>
       </c>
       <c r="D27" t="n">
-        <v>19458250.0340485</v>
+        <v>4931807.687504366</v>
       </c>
       <c r="E27" t="n">
-        <v>20073055.12636852</v>
+        <v>4988529.392544553</v>
       </c>
       <c r="F27" t="n">
-        <v>20027258.34509897</v>
+        <v>5045279.870280527</v>
       </c>
       <c r="G27" t="n">
-        <v>20335037.74822164</v>
+        <v>5102057.774437152</v>
       </c>
       <c r="H27" t="n">
-        <v>20931318.96076071</v>
+        <v>5158861.768585883</v>
       </c>
       <c r="I27" t="n">
-        <v>21558806.56960642</v>
+        <v>5215690.528486565</v>
       </c>
       <c r="J27" t="n">
-        <v>21506400.66160035</v>
+        <v>5272542.744198486</v>
       </c>
       <c r="K27" t="n">
-        <v>21757087.09850407</v>
+        <v>5329417.121999502</v>
       </c>
       <c r="L27" t="n">
-        <v>22428724.42563915</v>
+        <v>5386312.386081502</v>
       </c>
       <c r="M27" t="n">
-        <v>23013348.58298385</v>
+        <v>5443227.280109435</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17179624.01951724</v>
+        <v>12847391.22546789</v>
       </c>
       <c r="C28" t="n">
-        <v>16207616.95913383</v>
+        <v>13024954.62639257</v>
       </c>
       <c r="D28" t="n">
-        <v>15596193.45949492</v>
+        <v>13202502.65786764</v>
       </c>
       <c r="E28" t="n">
-        <v>15244847.40572858</v>
+        <v>13380041.11118659</v>
       </c>
       <c r="F28" t="n">
-        <v>15081087.52046081</v>
+        <v>13557592.06327643</v>
       </c>
       <c r="G28" t="n">
-        <v>15052628.57325378</v>
+        <v>13735156.33951166</v>
       </c>
       <c r="H28" t="n">
-        <v>15121759.19412988</v>
+        <v>13912712.11028098</v>
       </c>
       <c r="I28" t="n">
-        <v>15261279.58963454</v>
+        <v>14090252.00776653</v>
       </c>
       <c r="J28" t="n">
-        <v>15451571.57045704</v>
+        <v>14267795.6534241</v>
       </c>
       <c r="K28" t="n">
-        <v>15678485.27272826</v>
+        <v>14445356.29567625</v>
       </c>
       <c r="L28" t="n">
-        <v>15931814.92969948</v>
+        <v>14622918.28378539</v>
       </c>
       <c r="M28" t="n">
-        <v>16204199.50327221</v>
+        <v>14800463.67859985</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14377657.93532193</v>
+        <v>2223864.985590032</v>
       </c>
       <c r="C29" t="n">
-        <v>14798283.79611659</v>
+        <v>2279053.861455489</v>
       </c>
       <c r="D29" t="n">
-        <v>15218841.37289226</v>
+        <v>2334242.309136986</v>
       </c>
       <c r="E29" t="n">
-        <v>15643102.15939057</v>
+        <v>2389430.329074683</v>
       </c>
       <c r="F29" t="n">
-        <v>16067945.90701711</v>
+        <v>2444617.921708307</v>
       </c>
       <c r="G29" t="n">
-        <v>16487543.54267347</v>
+        <v>2499805.087477074</v>
       </c>
       <c r="H29" t="n">
-        <v>16905651.59130263</v>
+        <v>2554991.826819798</v>
       </c>
       <c r="I29" t="n">
-        <v>17323134.02148724</v>
+        <v>2610178.140174831</v>
       </c>
       <c r="J29" t="n">
-        <v>17743578.33583772</v>
+        <v>2665364.027980071</v>
       </c>
       <c r="K29" t="n">
-        <v>18166066.63977647</v>
+        <v>2720549.490672964</v>
       </c>
       <c r="L29" t="n">
-        <v>18582734.85284674</v>
+        <v>2775734.528690523</v>
       </c>
       <c r="M29" t="n">
-        <v>19005734.14291489</v>
+        <v>2830919.142469276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46672095.8388322</v>
+        <v>523817.1908328012</v>
       </c>
       <c r="C30" t="n">
-        <v>47197516.90784594</v>
+        <v>538159.2982248217</v>
       </c>
       <c r="D30" t="n">
-        <v>47705535.65308928</v>
+        <v>552391.1131240055</v>
       </c>
       <c r="E30" t="n">
-        <v>48201098.87783462</v>
+        <v>566517.4553956389</v>
       </c>
       <c r="F30" t="n">
-        <v>48689769.78806603</v>
+        <v>580542.9403652251</v>
       </c>
       <c r="G30" t="n">
-        <v>49177532.98315245</v>
+        <v>594471.9874164239</v>
       </c>
       <c r="H30" t="n">
-        <v>49670574.65984476</v>
+        <v>608308.8282266408</v>
       </c>
       <c r="I30" t="n">
-        <v>50175043.74420822</v>
+        <v>622057.5146571845</v>
       </c>
       <c r="J30" t="n">
-        <v>50696802.33530372</v>
+        <v>635721.926311329</v>
       </c>
       <c r="K30" t="n">
-        <v>51241176.80349416</v>
+        <v>649305.7777747512</v>
       </c>
       <c r="L30" t="n">
-        <v>51812723.42358863</v>
+        <v>662812.6255520284</v>
       </c>
       <c r="M30" t="n">
-        <v>52415023.72232419</v>
+        <v>676245.874711439</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34322718.81615631</v>
+        <v>1639298.976519257</v>
       </c>
       <c r="C31" t="n">
-        <v>34321160.31814913</v>
+        <v>1217306.996415943</v>
       </c>
       <c r="D31" t="n">
-        <v>34319242.90809072</v>
+        <v>1173449.411034971</v>
       </c>
       <c r="E31" t="n">
-        <v>34316967.4382527</v>
+        <v>1191057.716551453</v>
       </c>
       <c r="F31" t="n">
-        <v>34314334.91310776</v>
+        <v>1205069.673308671</v>
       </c>
       <c r="G31" t="n">
-        <v>34311346.48875728</v>
+        <v>1225031.20191747</v>
       </c>
       <c r="H31" t="n">
-        <v>34308003.47228146</v>
+        <v>1253118.17117849</v>
       </c>
       <c r="I31" t="n">
-        <v>34304307.32101263</v>
+        <v>1266887.747419894</v>
       </c>
       <c r="J31" t="n">
-        <v>34300259.64173254</v>
+        <v>1273691.896142036</v>
       </c>
       <c r="K31" t="n">
-        <v>34295862.18979401</v>
+        <v>1298056.720334619</v>
       </c>
       <c r="L31" t="n">
-        <v>34291116.86816788</v>
+        <v>1330993.479295909</v>
       </c>
       <c r="M31" t="n">
-        <v>34286025.72641629</v>
+        <v>1351007.871317029</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>915204.4313943738</v>
+        <v>1824098.024876684</v>
       </c>
       <c r="C32" t="n">
-        <v>892317.008629909</v>
+        <v>1871697.12137644</v>
       </c>
       <c r="D32" t="n">
-        <v>869959.1428216244</v>
+        <v>1918891.154862188</v>
       </c>
       <c r="E32" t="n">
-        <v>848130.5079735175</v>
+        <v>1965596.137234837</v>
       </c>
       <c r="F32" t="n">
-        <v>826833.7115607068</v>
+        <v>2011952.50190049</v>
       </c>
       <c r="G32" t="n">
-        <v>806073.3831723944</v>
+        <v>2057891.544228297</v>
       </c>
       <c r="H32" t="n">
-        <v>785855.1911541021</v>
+        <v>2103474.887151744</v>
       </c>
       <c r="I32" t="n">
-        <v>766184.834409008</v>
+        <v>2148869.701477967</v>
       </c>
       <c r="J32" t="n">
-        <v>747067.0562955614</v>
+        <v>2193727.930057362</v>
       </c>
       <c r="K32" t="n">
-        <v>728504.7256293524</v>
+        <v>2238530.180235483</v>
       </c>
       <c r="L32" t="n">
-        <v>710498.0264226088</v>
+        <v>2282907.441669878</v>
       </c>
       <c r="M32" t="n">
-        <v>693043.7933475417</v>
+        <v>2327038.941077348</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4397512.111778617</v>
+        <v>2938548.364435568</v>
       </c>
       <c r="C33" t="n">
-        <v>4489126.947440624</v>
+        <v>2999768.122027963</v>
       </c>
       <c r="D33" t="n">
-        <v>4580741.783102691</v>
+        <v>3060987.879620388</v>
       </c>
       <c r="E33" t="n">
-        <v>4672356.618764758</v>
+        <v>3122207.637212768</v>
       </c>
       <c r="F33" t="n">
-        <v>4763971.454426885</v>
+        <v>3183427.394805238</v>
       </c>
       <c r="G33" t="n">
-        <v>4855586.290088892</v>
+        <v>3244647.152397618</v>
       </c>
       <c r="H33" t="n">
-        <v>4947201.12575084</v>
+        <v>3305866.909989968</v>
       </c>
       <c r="I33" t="n">
-        <v>5038815.961412907</v>
+        <v>3367086.667582393</v>
       </c>
       <c r="J33" t="n">
-        <v>5130430.797075033</v>
+        <v>3428306.425174832</v>
       </c>
       <c r="K33" t="n">
-        <v>5222045.632736981</v>
+        <v>3489526.182767183</v>
       </c>
       <c r="L33" t="n">
-        <v>5313660.468399048</v>
+        <v>3550745.940359622</v>
       </c>
       <c r="M33" t="n">
-        <v>5405275.304061174</v>
+        <v>3611965.697952017</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11645464.41017315</v>
+        <v>3359945.692642771</v>
       </c>
       <c r="C34" t="n">
-        <v>11888078.25205132</v>
+        <v>3437695.160608724</v>
       </c>
       <c r="D34" t="n">
-        <v>12130692.09392995</v>
+        <v>3516023.054052368</v>
       </c>
       <c r="E34" t="n">
-        <v>12373305.93580887</v>
+        <v>3594731.453071691</v>
       </c>
       <c r="F34" t="n">
-        <v>12615919.77768755</v>
+        <v>3673646.054445647</v>
       </c>
       <c r="G34" t="n">
-        <v>12858533.61956632</v>
+        <v>3752616.867145203</v>
       </c>
       <c r="H34" t="n">
-        <v>13101147.46144444</v>
+        <v>3831518.135643199</v>
       </c>
       <c r="I34" t="n">
-        <v>13343761.30332297</v>
+        <v>3910247.585006133</v>
       </c>
       <c r="J34" t="n">
-        <v>13586375.14520207</v>
+        <v>3988725.098613948</v>
       </c>
       <c r="K34" t="n">
-        <v>13828988.98708022</v>
+        <v>4066890.949140549</v>
       </c>
       <c r="L34" t="n">
-        <v>14071602.82895893</v>
+        <v>4144703.70639845</v>
       </c>
       <c r="M34" t="n">
-        <v>14314216.67083794</v>
+        <v>4222137.942424588</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5837439.250627264</v>
+        <v>1295564.459679306</v>
       </c>
       <c r="C35" t="n">
-        <v>5971175.959040701</v>
+        <v>1548630.763606101</v>
       </c>
       <c r="D35" t="n">
-        <v>6104912.667454362</v>
+        <v>1702678.182908982</v>
       </c>
       <c r="E35" t="n">
-        <v>6238649.375868358</v>
+        <v>1708784.62083675</v>
       </c>
       <c r="F35" t="n">
-        <v>6372386.084282629</v>
+        <v>1812361.977242887</v>
       </c>
       <c r="G35" t="n">
-        <v>6506122.792696998</v>
+        <v>1810839.37184526</v>
       </c>
       <c r="H35" t="n">
-        <v>6639859.501111791</v>
+        <v>1905657.579708323</v>
       </c>
       <c r="I35" t="n">
-        <v>6773596.209526792</v>
+        <v>1911445.207317516</v>
       </c>
       <c r="J35" t="n">
-        <v>6907332.917941943</v>
+        <v>1991419.193076432</v>
       </c>
       <c r="K35" t="n">
-        <v>7041069.626357444</v>
+        <v>2011311.29878433</v>
       </c>
       <c r="L35" t="n">
-        <v>7174806.334773079</v>
+        <v>2071308.557610974</v>
       </c>
       <c r="M35" t="n">
-        <v>7308543.043189079</v>
+        <v>2109574.494050443</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2577012.744994411</v>
+        <v>1191206.797539756</v>
       </c>
       <c r="C36" t="n">
-        <v>2577012.753258702</v>
+        <v>1221350.442904681</v>
       </c>
       <c r="D36" t="n">
-        <v>2577012.760889905</v>
+        <v>1251325.477398857</v>
       </c>
       <c r="E36" t="n">
-        <v>2577012.759489574</v>
+        <v>1281139.65567407</v>
       </c>
       <c r="F36" t="n">
-        <v>2577012.761307743</v>
+        <v>1310800.375734746</v>
       </c>
       <c r="G36" t="n">
-        <v>2577012.720583173</v>
+        <v>1340314.695340648</v>
       </c>
       <c r="H36" t="n">
-        <v>2577012.730361794</v>
+        <v>1369689.347655207</v>
       </c>
       <c r="I36" t="n">
-        <v>2577012.775640437</v>
+        <v>1398930.756174117</v>
       </c>
       <c r="J36" t="n">
-        <v>2577012.770162401</v>
+        <v>1428045.04896763</v>
       </c>
       <c r="K36" t="n">
-        <v>2577012.753705596</v>
+        <v>1457038.072267085</v>
       </c>
       <c r="L36" t="n">
-        <v>2577012.796594782</v>
+        <v>1485915.403427705</v>
       </c>
       <c r="M36" t="n">
-        <v>2577012.756142614</v>
+        <v>1514682.363294065</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7878346.643648628</v>
+        <v>4525855.309749961</v>
       </c>
       <c r="C37" t="n">
-        <v>8042478.86539131</v>
+        <v>4573021.504414201</v>
       </c>
       <c r="D37" t="n">
-        <v>8206611.087133992</v>
+        <v>4620187.69907403</v>
       </c>
       <c r="E37" t="n">
-        <v>8370743.308876634</v>
+        <v>4667353.893730521</v>
       </c>
       <c r="F37" t="n">
-        <v>8534875.530619346</v>
+        <v>4714520.08838284</v>
       </c>
       <c r="G37" t="n">
-        <v>8699007.752361998</v>
+        <v>4761686.283031344</v>
       </c>
       <c r="H37" t="n">
-        <v>8863139.974104691</v>
+        <v>4808852.477675676</v>
       </c>
       <c r="I37" t="n">
-        <v>9027272.195847377</v>
+        <v>4856018.672315836</v>
       </c>
       <c r="J37" t="n">
-        <v>9191404.41759003</v>
+        <v>4903184.866952538</v>
       </c>
       <c r="K37" t="n">
-        <v>9355536.639332741</v>
+        <v>4950351.061585069</v>
       </c>
       <c r="L37" t="n">
-        <v>9519668.861075431</v>
+        <v>4997517.256213784</v>
       </c>
       <c r="M37" t="n">
-        <v>9683801.082818106</v>
+        <v>5044683.450838447</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2324471.212646537</v>
+        <v>4459595.093044877</v>
       </c>
       <c r="C38" t="n">
-        <v>2346543.944426026</v>
+        <v>4522428.993175983</v>
       </c>
       <c r="D38" t="n">
-        <v>2381947.606983792</v>
+        <v>4585100.866557121</v>
       </c>
       <c r="E38" t="n">
-        <v>2411294.819132291</v>
+        <v>4647584.072227716</v>
       </c>
       <c r="F38" t="n">
-        <v>2423537.205106024</v>
+        <v>4710301.586290002</v>
       </c>
       <c r="G38" t="n">
-        <v>2450613.420446221</v>
+        <v>4772983.37329793</v>
       </c>
       <c r="H38" t="n">
-        <v>2487468.215682581</v>
+        <v>4835540.568042994</v>
       </c>
       <c r="I38" t="n">
-        <v>2505046.677177012</v>
+        <v>4898404.177684784</v>
       </c>
       <c r="J38" t="n">
-        <v>2535646.683996409</v>
+        <v>4961068.412625313</v>
       </c>
       <c r="K38" t="n">
-        <v>2553857.38262653</v>
+        <v>5023851.178884983</v>
       </c>
       <c r="L38" t="n">
-        <v>2582799.238647152</v>
+        <v>5086299.581245065</v>
       </c>
       <c r="M38" t="n">
-        <v>2619856.839830097</v>
+        <v>5149088.633284569</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3479466.989973577</v>
+        <v>5670611.689022988</v>
       </c>
       <c r="C39" t="n">
-        <v>3503291.388551757</v>
+        <v>5756089.311795324</v>
       </c>
       <c r="D39" t="n">
-        <v>3527378.740813825</v>
+        <v>5841566.93456772</v>
       </c>
       <c r="E39" t="n">
-        <v>3551233.719422217</v>
+        <v>5927044.557340205</v>
       </c>
       <c r="F39" t="n">
-        <v>3574850.815669902</v>
+        <v>6012522.1801126</v>
       </c>
       <c r="G39" t="n">
-        <v>3598725.894005112</v>
+        <v>6097999.802885056</v>
       </c>
       <c r="H39" t="n">
-        <v>3622813.445048338</v>
+        <v>6183477.425657332</v>
       </c>
       <c r="I39" t="n">
-        <v>3646622.261400349</v>
+        <v>6268955.048429847</v>
       </c>
       <c r="J39" t="n">
-        <v>3670248.443502601</v>
+        <v>6354432.671202064</v>
       </c>
       <c r="K39" t="n">
-        <v>3694173.281402249</v>
+        <v>6439910.293974578</v>
       </c>
       <c r="L39" t="n">
-        <v>3718251.150331877</v>
+        <v>6525387.916746974</v>
       </c>
       <c r="M39" t="n">
-        <v>3742015.73105903</v>
+        <v>6610865.539519429</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13288012.50649285</v>
+        <v>5292639.269245118</v>
       </c>
       <c r="C40" t="n">
-        <v>13501758.25803161</v>
+        <v>5363284.042397738</v>
       </c>
       <c r="D40" t="n">
-        <v>13715548.42829132</v>
+        <v>5436278.384420663</v>
       </c>
       <c r="E40" t="n">
-        <v>13929368.76865244</v>
+        <v>5511686.237704217</v>
       </c>
       <c r="F40" t="n">
-        <v>14143204.70594501</v>
+        <v>5589556.038307101</v>
       </c>
       <c r="G40" t="n">
-        <v>14357041.49956918</v>
+        <v>5669920.813532978</v>
       </c>
       <c r="H40" t="n">
-        <v>14570864.40035605</v>
+        <v>5752798.456068069</v>
       </c>
       <c r="I40" t="n">
-        <v>14784658.80948281</v>
+        <v>5838192.153874338</v>
       </c>
       <c r="J40" t="n">
-        <v>14998410.43578291</v>
+        <v>5926090.951643199</v>
       </c>
       <c r="K40" t="n">
-        <v>15212105.44978166</v>
+        <v>6016470.417336166</v>
       </c>
       <c r="L40" t="n">
-        <v>15425730.63283038</v>
+        <v>6109293.386241019</v>
       </c>
       <c r="M40" t="n">
-        <v>15639273.51976895</v>
+        <v>6204510.755024821</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10999153.35104382</v>
+        <v>3265526.51871255</v>
       </c>
       <c r="C41" t="n">
-        <v>11228302.37919044</v>
+        <v>3306889.08476207</v>
       </c>
       <c r="D41" t="n">
-        <v>11457451.40733743</v>
+        <v>3348252.261378776</v>
       </c>
       <c r="E41" t="n">
-        <v>11686600.43548441</v>
+        <v>3389624.180699643</v>
       </c>
       <c r="F41" t="n">
-        <v>11915749.46363103</v>
+        <v>3430997.948117033</v>
       </c>
       <c r="G41" t="n">
-        <v>12144898.49177754</v>
+        <v>3472363.492565524</v>
       </c>
       <c r="H41" t="n">
-        <v>12374047.51992428</v>
+        <v>3513724.876407817</v>
       </c>
       <c r="I41" t="n">
-        <v>12603196.54807127</v>
+        <v>3555093.313159317</v>
       </c>
       <c r="J41" t="n">
-        <v>12832345.57621813</v>
+        <v>3596467.893964127</v>
       </c>
       <c r="K41" t="n">
-        <v>13061494.60436499</v>
+        <v>3637837.149727438</v>
       </c>
       <c r="L41" t="n">
-        <v>13290643.63251185</v>
+        <v>3679198.763897017</v>
       </c>
       <c r="M41" t="n">
-        <v>13519792.66065788</v>
+        <v>3720563.554106057</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11519137.12191442</v>
+        <v>3424140.10871876</v>
       </c>
       <c r="C42" t="n">
-        <v>11790679.71531309</v>
+        <v>3692074.868720405</v>
       </c>
       <c r="D42" t="n">
-        <v>12045964.98659796</v>
+        <v>3976150.689272463</v>
       </c>
       <c r="E42" t="n">
-        <v>12283947.93447796</v>
+        <v>4168101.90850392</v>
       </c>
       <c r="F42" t="n">
-        <v>12508167.10570812</v>
+        <v>4317422.197626427</v>
       </c>
       <c r="G42" t="n">
-        <v>12720999.49402849</v>
+        <v>4527947.563182473</v>
       </c>
       <c r="H42" t="n">
-        <v>12924859.11135769</v>
+        <v>4817637.215153709</v>
       </c>
       <c r="I42" t="n">
-        <v>13122522.15916243</v>
+        <v>5089739.097185202</v>
       </c>
       <c r="J42" t="n">
-        <v>13314917.40845348</v>
+        <v>5215340.916318923</v>
       </c>
       <c r="K42" t="n">
-        <v>13505664.05473888</v>
+        <v>5130196.627292007</v>
       </c>
       <c r="L42" t="n">
-        <v>13693845.34746498</v>
+        <v>4889981.698531076</v>
       </c>
       <c r="M42" t="n">
-        <v>13882618.66131362</v>
+        <v>4670376.852745339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5788325.551867954</v>
+        <v>3053123.150012948</v>
       </c>
       <c r="C43" t="n">
-        <v>5915685.926670752</v>
+        <v>3105649.987327881</v>
       </c>
       <c r="D43" t="n">
-        <v>6042801.745474827</v>
+        <v>3157541.135070942</v>
       </c>
       <c r="E43" t="n">
-        <v>6169685.45747944</v>
+        <v>3208835.340400487</v>
       </c>
       <c r="F43" t="n">
-        <v>6296348.878153451</v>
+        <v>3259583.73404783</v>
       </c>
       <c r="G43" t="n">
-        <v>6422803.221495643</v>
+        <v>3309805.198342152</v>
       </c>
       <c r="H43" t="n">
-        <v>6549059.130652666</v>
+        <v>3359543.125957161</v>
       </c>
       <c r="I43" t="n">
-        <v>6675126.706978492</v>
+        <v>3408831.074013278</v>
       </c>
       <c r="J43" t="n">
-        <v>6801015.537614517</v>
+        <v>3457684.613910064</v>
       </c>
       <c r="K43" t="n">
-        <v>6926734.721665725</v>
+        <v>3506147.558696389</v>
       </c>
       <c r="L43" t="n">
-        <v>7052292.895044334</v>
+        <v>3554235.792266384</v>
       </c>
       <c r="M43" t="n">
-        <v>7177698.25404875</v>
+        <v>3601970.133716658</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12774002.31585746</v>
+        <v>4745483.681925433</v>
       </c>
       <c r="C44" t="n">
-        <v>12958400.53464786</v>
+        <v>4745483.681949873</v>
       </c>
       <c r="D44" t="n">
-        <v>13142831.73669173</v>
+        <v>4745483.681971603</v>
       </c>
       <c r="E44" t="n">
-        <v>13327295.81946259</v>
+        <v>4745483.681990623</v>
       </c>
       <c r="F44" t="n">
-        <v>13511792.68075266</v>
+        <v>4745483.682006933</v>
       </c>
       <c r="G44" t="n">
-        <v>13696322.21867183</v>
+        <v>4745483.682020531</v>
       </c>
       <c r="H44" t="n">
-        <v>13880884.33164672</v>
+        <v>4745483.682031419</v>
       </c>
       <c r="I44" t="n">
-        <v>14065478.91841973</v>
+        <v>4745483.682039597</v>
       </c>
       <c r="J44" t="n">
-        <v>14250105.87804797</v>
+        <v>4745483.682045067</v>
       </c>
       <c r="K44" t="n">
-        <v>14434765.10990234</v>
+        <v>4745483.682047823</v>
       </c>
       <c r="L44" t="n">
-        <v>14619456.51366656</v>
+        <v>4745483.68204787</v>
       </c>
       <c r="M44" t="n">
-        <v>14804179.98933622</v>
+        <v>4745483.682045206</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5105703.757221594</v>
+        <v>2942003.877274981</v>
       </c>
       <c r="C45" t="n">
-        <v>5176469.510916308</v>
+        <v>2961622.717173917</v>
       </c>
       <c r="D45" t="n">
-        <v>5247237.956761494</v>
+        <v>2980051.271804082</v>
       </c>
       <c r="E45" t="n">
-        <v>5318009.09127526</v>
+        <v>3000072.713301984</v>
       </c>
       <c r="F45" t="n">
-        <v>5388782.910979599</v>
+        <v>3019003.989986884</v>
       </c>
       <c r="G45" t="n">
-        <v>5459559.41240114</v>
+        <v>3038327.645254615</v>
       </c>
       <c r="H45" t="n">
-        <v>5530338.592071086</v>
+        <v>3058365.359750601</v>
       </c>
       <c r="I45" t="n">
-        <v>5601120.446525306</v>
+        <v>3077119.980645243</v>
       </c>
       <c r="J45" t="n">
-        <v>5671904.972304106</v>
+        <v>3097444.343127473</v>
       </c>
       <c r="K45" t="n">
-        <v>5742692.165951669</v>
+        <v>3116794.490567249</v>
       </c>
       <c r="L45" t="n">
-        <v>5813482.024017334</v>
+        <v>3136362.152246826</v>
       </c>
       <c r="M45" t="n">
-        <v>5884274.543054789</v>
+        <v>3156792.692888698</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15296955.59470773</v>
+        <v>2245230.336207852</v>
       </c>
       <c r="C46" t="n">
-        <v>15615642.16959691</v>
+        <v>2250871.918602824</v>
       </c>
       <c r="D46" t="n">
-        <v>15934328.74448729</v>
+        <v>2256513.500986889</v>
       </c>
       <c r="E46" t="n">
-        <v>16253015.31937647</v>
+        <v>2262155.083359882</v>
       </c>
       <c r="F46" t="n">
-        <v>16571701.89426661</v>
+        <v>2267796.665721983</v>
       </c>
       <c r="G46" t="n">
-        <v>16890388.46915579</v>
+        <v>2273438.248073041</v>
       </c>
       <c r="H46" t="n">
-        <v>17209075.04404616</v>
+        <v>2279079.830413073</v>
       </c>
       <c r="I46" t="n">
-        <v>17527761.61893582</v>
+        <v>2284721.412742063</v>
       </c>
       <c r="J46" t="n">
-        <v>17846448.19382548</v>
+        <v>2290362.995060161</v>
       </c>
       <c r="K46" t="n">
-        <v>18165134.76871467</v>
+        <v>2296004.577367216</v>
       </c>
       <c r="L46" t="n">
-        <v>18483821.34360456</v>
+        <v>2301646.15966326</v>
       </c>
       <c r="M46" t="n">
-        <v>18802507.91849422</v>
+        <v>2307287.741948336</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2253296.009980677</v>
+        <v>1895769.323488429</v>
       </c>
       <c r="C47" t="n">
-        <v>2291907.464650081</v>
+        <v>1935264.517727822</v>
       </c>
       <c r="D47" t="n">
-        <v>2330801.823681637</v>
+        <v>1974759.711967021</v>
       </c>
       <c r="E47" t="n">
-        <v>2369965.358001471</v>
+        <v>2014254.906206429</v>
       </c>
       <c r="F47" t="n">
-        <v>2409385.004794362</v>
+        <v>2053750.100445777</v>
       </c>
       <c r="G47" t="n">
-        <v>2449048.335170818</v>
+        <v>2093245.294685155</v>
       </c>
       <c r="H47" t="n">
-        <v>2488943.523403226</v>
+        <v>2132740.488924444</v>
       </c>
       <c r="I47" t="n">
-        <v>2529059.317655105</v>
+        <v>2172235.683163881</v>
       </c>
       <c r="J47" t="n">
-        <v>2569385.012130668</v>
+        <v>2211730.87740308</v>
       </c>
       <c r="K47" t="n">
-        <v>2609910.420575946</v>
+        <v>2251226.071642488</v>
       </c>
       <c r="L47" t="n">
-        <v>2650625.851066025</v>
+        <v>2290721.265881807</v>
       </c>
       <c r="M47" t="n">
-        <v>2691522.082015684</v>
+        <v>2330216.460121125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>698522.4917131923</v>
+        <v>5893561.777575374</v>
       </c>
       <c r="C48" t="n">
-        <v>714563.6063192002</v>
+        <v>6016344.314608455</v>
       </c>
       <c r="D48" t="n">
-        <v>730602.2317284159</v>
+        <v>6139126.851641059</v>
       </c>
       <c r="E48" t="n">
-        <v>746638.3848608844</v>
+        <v>6261909.388674021</v>
       </c>
       <c r="F48" t="n">
-        <v>762672.0825216249</v>
+        <v>6384691.925706863</v>
       </c>
       <c r="G48" t="n">
-        <v>778703.3414014354</v>
+        <v>6507474.462739587</v>
       </c>
       <c r="H48" t="n">
-        <v>794732.1780776605</v>
+        <v>6630256.99977237</v>
       </c>
       <c r="I48" t="n">
-        <v>810758.6090149805</v>
+        <v>6753039.536805212</v>
       </c>
       <c r="J48" t="n">
-        <v>826782.6505661011</v>
+        <v>6875822.073838055</v>
       </c>
       <c r="K48" t="n">
-        <v>842804.3189726472</v>
+        <v>6998604.610870838</v>
       </c>
       <c r="L48" t="n">
-        <v>858823.6303657889</v>
+        <v>7121387.147903621</v>
       </c>
       <c r="M48" t="n">
-        <v>874840.6007670909</v>
+        <v>7244169.684936523</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>997338.738822557</v>
+        <v>818469.912297152</v>
       </c>
       <c r="C49" t="n">
-        <v>1018116.629214715</v>
+        <v>837773.998834081</v>
       </c>
       <c r="D49" t="n">
-        <v>1038894.519606836</v>
+        <v>852274.2474081144</v>
       </c>
       <c r="E49" t="n">
-        <v>1059672.409998968</v>
+        <v>871377.5428479761</v>
       </c>
       <c r="F49" t="n">
-        <v>1080450.300391104</v>
+        <v>888430.7340161502</v>
       </c>
       <c r="G49" t="n">
-        <v>1101228.190783262</v>
+        <v>904291.9905648604</v>
       </c>
       <c r="H49" t="n">
-        <v>1122006.081175376</v>
+        <v>923948.6561725214</v>
       </c>
       <c r="I49" t="n">
-        <v>1142783.971567512</v>
+        <v>938721.226171501</v>
       </c>
       <c r="J49" t="n">
-        <v>1163561.861959632</v>
+        <v>957128.1443704218</v>
       </c>
       <c r="K49" t="n">
-        <v>1184339.752351813</v>
+        <v>975197.0213822126</v>
       </c>
       <c r="L49" t="n">
-        <v>1205117.642743871</v>
+        <v>990235.6079638302</v>
       </c>
       <c r="M49" t="n">
-        <v>1225895.533136066</v>
+        <v>1009920.893806115</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2148975.040187642</v>
+        <v>3032749.474690411</v>
       </c>
       <c r="C50" t="n">
-        <v>2193745.353524849</v>
+        <v>3155193.939504657</v>
       </c>
       <c r="D50" t="n">
-        <v>2238515.66686213</v>
+        <v>3229354.380781725</v>
       </c>
       <c r="E50" t="n">
-        <v>2283285.980199367</v>
+        <v>3350902.477218255</v>
       </c>
       <c r="F50" t="n">
-        <v>2328056.293536603</v>
+        <v>3399106.710856155</v>
       </c>
       <c r="G50" t="n">
-        <v>2372826.606873825</v>
+        <v>3446385.233162045</v>
       </c>
       <c r="H50" t="n">
-        <v>2417596.920211062</v>
+        <v>3495386.510232437</v>
       </c>
       <c r="I50" t="n">
-        <v>2462367.233548313</v>
+        <v>3544530.466984939</v>
       </c>
       <c r="J50" t="n">
-        <v>2507137.54688555</v>
+        <v>3593668.94219159</v>
       </c>
       <c r="K50" t="n">
-        <v>2551907.860222816</v>
+        <v>3642783.836569022</v>
       </c>
       <c r="L50" t="n">
-        <v>2596678.173560053</v>
+        <v>3691812.362940367</v>
       </c>
       <c r="M50" t="n">
-        <v>2641448.48689729</v>
+        <v>3740715.465929676</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2972818.132432759</v>
+        <v>3289211.997388437</v>
       </c>
       <c r="C51" t="n">
-        <v>3038780.883975372</v>
+        <v>3367947.135934919</v>
       </c>
       <c r="D51" t="n">
-        <v>3104717.146066606</v>
+        <v>3446773.86692775</v>
       </c>
       <c r="E51" t="n">
-        <v>3170628.844489276</v>
+        <v>3525677.446480192</v>
       </c>
       <c r="F51" t="n">
-        <v>3236517.837374628</v>
+        <v>3604634.270405732</v>
       </c>
       <c r="G51" t="n">
-        <v>3302385.917053446</v>
+        <v>3683614.527293742</v>
       </c>
       <c r="H51" t="n">
-        <v>3368234.811865151</v>
+        <v>3762585.548300028</v>
       </c>
       <c r="I51" t="n">
-        <v>3434066.187919468</v>
+        <v>3841515.477309123</v>
       </c>
       <c r="J51" t="n">
-        <v>3499881.650822401</v>
+        <v>3920376.849417001</v>
       </c>
       <c r="K51" t="n">
-        <v>3565682.747351572</v>
+        <v>3999149.676143132</v>
       </c>
       <c r="L51" t="n">
-        <v>3631470.967101201</v>
+        <v>4077823.691170909</v>
       </c>
       <c r="M51" t="n">
-        <v>3697247.7440781</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3412867.66241907</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3476377.593594827</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3540157.511977516</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3604193.838322803</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3668473.676366441</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3732984.778473198</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3797715.513013385</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3862654.833380386</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3927792.248566397</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3993117.795218036</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4058622.011097632</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4124295.909879044</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1961896.07578209</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2002768.910694271</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2043641.745606378</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2084514.580518499</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2125387.415430635</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2166260.250342742</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2207133.085254818</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2248005.920167014</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2288878.75507915</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2329751.589991227</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2370624.424903348</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2411497.259815454</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1302101.012101442</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1391220.67762208</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1496352.683169454</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1487844.808278918</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1548690.4039675</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1540629.297449976</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1583419.279452503</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1588104.773695886</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1613674.416961104</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1633544.998928636</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1641266.869391263</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1676737.353052199</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4095817.520673051</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4228972.098299474</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4354845.571116492</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4474271.66035895</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4587989.042594567</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4696652.610278234</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4800841.505943254</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4901067.807467416</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4997785.779239118</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5091398.119487837</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5182260.393896982</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5270687.166038856</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4477084.723586023</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4542053.677880064</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4606897.434339676</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4671995.021820597</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4737098.718347032</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4801945.73038163</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4866907.039028436</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4932071.405240349</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4997026.247207597</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5061876.287937544</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5126985.03879074</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5192077.216532692</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5638403.739552513</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5726199.728878051</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5814001.332774192</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5901808.539549291</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5989621.337535828</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6077439.71509093</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6165263.660595655</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6253093.162455574</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6340928.209100053</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6428768.788982868</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6516614.890581578</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6604466.50239791</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5472011.52079165</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5542680.412075877</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5613349.303360105</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5684018.194644302</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5754687.08592838</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5825355.977212667</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5896024.868496776</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5966693.759781063</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6037362.65106523</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6108031.542349339</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6178700.433633566</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6249369.324917793</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3351741.973004524</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3396319.76547404</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3441688.021272438</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3487608.465773458</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3532244.075365556</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3577477.811947245</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3623460.87700687</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3668174.940792011</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3713275.814996149</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3759299.380323155</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3804110.045385184</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3849083.930774974</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4395969.379702508</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4450206.541268721</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4504442.644086666</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4558677.688416407</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4612911.674522668</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4667144.602675036</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4721376.473147668</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4775607.286219612</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4829837.04217428</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4884065.741299942</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4938293.383889392</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4992519.970240116</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3281730.730481774</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3341968.398131624</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3401568.526367754</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3460576.418181434</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3519034.157375962</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3576980.837319195</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3634452.773441017</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3691483.700631648</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3748104.956611663</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3804345.652273208</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3860232.829916462</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3915791.610241577</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5982294.766036026</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6028578.497277588</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6074869.674581707</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6121158.378288127</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6167461.158571824</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6213755.786187127</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6260068.82359013</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6306370.919802099</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6352692.446661726</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6399003.781931892</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6445332.014615238</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6491654.165024564</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3114309.682203397</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3144855.774493806</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3175442.713317104</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3206107.305651799</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3236810.235305682</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3267582.000042446</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3298405.452647887</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3329278.143092074</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3360219.231377661</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3391194.887096457</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3422243.658628643</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3453328.767234161</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2457522.395810276</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2473926.354855627</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2490328.254315257</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2506731.906388506</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2523137.445534982</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2539541.160662942</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2555943.727337755</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2572346.618933469</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2588751.430126429</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2605156.129325859</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2621558.429335155</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2637961.586701781</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2238169.18843852</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2248601.96144262</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2270903.486165717</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2301749.760516569</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2338739.838489123</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2380139.354203619</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2424695.337746195</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2471502.503875852</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2519906.704409681</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2569435.213102475</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2619746.383935899</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2670593.297372371</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5351570.20655635</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5441909.046491623</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5532243.201535404</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5622578.382134318</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5712918.277880907</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5803257.287389129</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5893591.55553484</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5983926.569900513</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6074266.347636193</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6164605.519890159</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6254939.91085574</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6345274.766101599</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>794222.8662947863</v>
-      </c>
-      <c r="C67" t="n">
-        <v>810769.1760092527</v>
-      </c>
-      <c r="D67" t="n">
-        <v>827315.485723719</v>
-      </c>
-      <c r="E67" t="n">
-        <v>843861.7954381853</v>
-      </c>
-      <c r="F67" t="n">
-        <v>860408.1051526666</v>
-      </c>
-      <c r="G67" t="n">
-        <v>876954.4148671627</v>
-      </c>
-      <c r="H67" t="n">
-        <v>893500.724581629</v>
-      </c>
-      <c r="I67" t="n">
-        <v>910047.0342960805</v>
-      </c>
-      <c r="J67" t="n">
-        <v>926593.3440105617</v>
-      </c>
-      <c r="K67" t="n">
-        <v>943139.653725028</v>
-      </c>
-      <c r="L67" t="n">
-        <v>959685.9634395093</v>
-      </c>
-      <c r="M67" t="n">
-        <v>976232.2731540054</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3028889.824481543</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3089934.600037023</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3151027.004987489</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3212165.305427469</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3273347.83057268</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3334572.970462263</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3395839.17374441</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3457144.945543192</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3518488.84540201</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3579869.485302895</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3641285.527757503</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3702735.683967412</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3159516.595796824</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3238449.146670341</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3317381.692152619</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3396314.242921114</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3475246.795100331</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3554179.340585709</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3633111.886141777</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3712044.433538437</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3790976.974395514</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3869909.518087149</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3948842.066421032</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4027774.610201597</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>14282070.48316669</v>
-      </c>
-      <c r="C70" t="n">
-        <v>14670263.56909657</v>
-      </c>
-      <c r="D70" t="n">
-        <v>15058456.6544199</v>
-      </c>
-      <c r="E70" t="n">
-        <v>15446649.73913479</v>
-      </c>
-      <c r="F70" t="n">
-        <v>15834842.82324028</v>
-      </c>
-      <c r="G70" t="n">
-        <v>16223035.90673828</v>
-      </c>
-      <c r="H70" t="n">
-        <v>16611228.98962784</v>
-      </c>
-      <c r="I70" t="n">
-        <v>16999422.07191181</v>
-      </c>
-      <c r="J70" t="n">
-        <v>17387615.15358448</v>
-      </c>
-      <c r="K70" t="n">
-        <v>17775808.23465061</v>
-      </c>
-      <c r="L70" t="n">
-        <v>18164001.31510735</v>
-      </c>
-      <c r="M70" t="n">
-        <v>18552194.39495659</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>26431756.28700304</v>
-      </c>
-      <c r="C71" t="n">
-        <v>26982417.87631607</v>
-      </c>
-      <c r="D71" t="n">
-        <v>27533079.46562815</v>
-      </c>
-      <c r="E71" t="n">
-        <v>28083741.0549407</v>
-      </c>
-      <c r="F71" t="n">
-        <v>28634402.64425373</v>
-      </c>
-      <c r="G71" t="n">
-        <v>29185064.23356581</v>
-      </c>
-      <c r="H71" t="n">
-        <v>29735725.82287788</v>
-      </c>
-      <c r="I71" t="n">
-        <v>30286387.41219091</v>
-      </c>
-      <c r="J71" t="n">
-        <v>30837049.00150347</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31387710.59081602</v>
-      </c>
-      <c r="L71" t="n">
-        <v>31938372.1801281</v>
-      </c>
-      <c r="M71" t="n">
-        <v>32489033.7694416</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3012852.731694633</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3006993.323817222</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3001145.311339367</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2995308.672099243</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2989483.383978146</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2983669.424900359</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2977866.772833122</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2972075.405786517</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2966295.301813389</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2960526.439009264</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2954768.795512281</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2949022.349503081</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>8180923.152483582</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8375183.260899901</v>
-      </c>
-      <c r="D73" t="n">
-        <v>8569438.96246767</v>
-      </c>
-      <c r="E73" t="n">
-        <v>8763690.266254425</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8957937.181309462</v>
-      </c>
-      <c r="G73" t="n">
-        <v>9152179.716663837</v>
-      </c>
-      <c r="H73" t="n">
-        <v>9346417.881330132</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9540651.684301376</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9734881.134553194</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9929106.241041899</v>
-      </c>
-      <c r="L73" t="n">
-        <v>10123327.01270652</v>
-      </c>
-      <c r="M73" t="n">
-        <v>10317543.45846653</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>20861030.231305</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20766344.60931993</v>
-      </c>
-      <c r="D74" t="n">
-        <v>21690157.70438865</v>
-      </c>
-      <c r="E74" t="n">
-        <v>22057376.67198429</v>
-      </c>
-      <c r="F74" t="n">
-        <v>21356398.55220956</v>
-      </c>
-      <c r="G74" t="n">
-        <v>22100206.58908266</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22664849.89927322</v>
-      </c>
-      <c r="I74" t="n">
-        <v>22629947.7183274</v>
-      </c>
-      <c r="J74" t="n">
-        <v>22225352.68493205</v>
-      </c>
-      <c r="K74" t="n">
-        <v>23205143.20870757</v>
-      </c>
-      <c r="L74" t="n">
-        <v>23612661.52411115</v>
-      </c>
-      <c r="M74" t="n">
-        <v>22995406.8534697</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>30767672.63159513</v>
-      </c>
-      <c r="C75" t="n">
-        <v>30976541.17123771</v>
-      </c>
-      <c r="D75" t="n">
-        <v>31529425.16956639</v>
-      </c>
-      <c r="E75" t="n">
-        <v>32091059.58953619</v>
-      </c>
-      <c r="F75" t="n">
-        <v>32652841.97441602</v>
-      </c>
-      <c r="G75" t="n">
-        <v>33214626.42788982</v>
-      </c>
-      <c r="H75" t="n">
-        <v>33776410.9072628</v>
-      </c>
-      <c r="I75" t="n">
-        <v>34338195.38693643</v>
-      </c>
-      <c r="J75" t="n">
-        <v>34899979.86661458</v>
-      </c>
-      <c r="K75" t="n">
-        <v>35461764.3462913</v>
-      </c>
-      <c r="L75" t="n">
-        <v>36023548.82596946</v>
-      </c>
-      <c r="M75" t="n">
-        <v>36585333.30564642</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>17179624.01951724</v>
-      </c>
-      <c r="C76" t="n">
-        <v>16207616.95913383</v>
-      </c>
-      <c r="D76" t="n">
-        <v>15596193.45949492</v>
-      </c>
-      <c r="E76" t="n">
-        <v>15244847.40572858</v>
-      </c>
-      <c r="F76" t="n">
-        <v>15081087.52046081</v>
-      </c>
-      <c r="G76" t="n">
-        <v>15052628.57325378</v>
-      </c>
-      <c r="H76" t="n">
-        <v>15121759.19412988</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15261279.58963454</v>
-      </c>
-      <c r="J76" t="n">
-        <v>15451571.57045704</v>
-      </c>
-      <c r="K76" t="n">
-        <v>15678485.27272826</v>
-      </c>
-      <c r="L76" t="n">
-        <v>15931814.92969948</v>
-      </c>
-      <c r="M76" t="n">
-        <v>16204199.50327221</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17571618.83659339</v>
-      </c>
-      <c r="C77" t="n">
-        <v>17724970.22524297</v>
-      </c>
-      <c r="D77" t="n">
-        <v>17789104.42011786</v>
-      </c>
-      <c r="E77" t="n">
-        <v>17800250.61387789</v>
-      </c>
-      <c r="F77" t="n">
-        <v>17789356.63229746</v>
-      </c>
-      <c r="G77" t="n">
-        <v>17779811.7102387</v>
-      </c>
-      <c r="H77" t="n">
-        <v>17787573.16455388</v>
-      </c>
-      <c r="I77" t="n">
-        <v>17822316.31954551</v>
-      </c>
-      <c r="J77" t="n">
-        <v>17888875.14903367</v>
-      </c>
-      <c r="K77" t="n">
-        <v>17988615.6498276</v>
-      </c>
-      <c r="L77" t="n">
-        <v>18120592.94103956</v>
-      </c>
-      <c r="M77" t="n">
-        <v>18282453.78086805</v>
+        <v>4156399.504515469</v>
       </c>
     </row>
   </sheetData>
